--- a/data/spreadsheets/Book.xlsx
+++ b/data/spreadsheets/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BF6383-66FC-2C49-B1C1-8CAEFAFF861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2221D09-4234-2B44-AD1F-F2FF9DA759A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="540" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="540" windowWidth="60620" windowHeight="24220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>BCO_005, BCO_006, BCO_007</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Daniela Subotic, Noémi Villars-Amberg</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -313,19 +322,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{464DFE08-DC38-E843-A5AF-F1ACB38CF994}" name="Table1" displayName="Table1" ref="A1:J3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J3" xr:uid="{464DFE08-DC38-E843-A5AF-F1ACB38CF994}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7C14EBB4-4CEE-8C40-913E-2BF6C790F628}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E8F5CA0A-1067-364D-A165-9035CC782722}" name="Authorship" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D30C5800-C4EC-084D-933E-4C434ABD0D95}" name="Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{15F33980-4AF1-1C4D-A185-4BE2DA5DA743}" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AC2C33C6-6FEE-394C-825C-EFE191A86D7E}" name="Date Published" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DD399581-B955-394F-9F9E-C59CFCB548C1}" name="Book Chapter ID" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{43D10166-170F-1E45-9760-B2DA9F7C9E1E}" name="Video ID" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B27D8ECC-06F3-774D-A552-56E26382E9F5}" name="Alternative Description" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8DDBDC14-089F-134B-A800-69AEFB34CD00}" name="Book Edition ID" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{4AF9CF17-3F96-CB47-9FDB-C49FEF11C9A4}" name="Book Cover ID" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{464DFE08-DC38-E843-A5AF-F1ACB38CF994}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K3" xr:uid="{464DFE08-DC38-E843-A5AF-F1ACB38CF994}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7C14EBB4-4CEE-8C40-913E-2BF6C790F628}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8F5CA0A-1067-364D-A165-9035CC782722}" name="Authorship" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D30C5800-C4EC-084D-933E-4C434ABD0D95}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{15F33980-4AF1-1C4D-A185-4BE2DA5DA743}" name="Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AC2C33C6-6FEE-394C-825C-EFE191A86D7E}" name="Date Published" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DD399581-B955-394F-9F9E-C59CFCB548C1}" name="Book Chapter ID" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{43D10166-170F-1E45-9760-B2DA9F7C9E1E}" name="Video ID" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B27D8ECC-06F3-774D-A552-56E26382E9F5}" name="Alternative Description" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8DDBDC14-089F-134B-A800-69AEFB34CD00}" name="Book Edition ID" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{4AF9CF17-3F96-CB47-9FDB-C49FEF11C9A4}" name="Book Cover ID" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D37C3C19-7A8A-D041-9456-C153BE70A002}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,10 +542,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -552,7 +562,7 @@
     <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -583,8 +593,11 @@
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="182" x14ac:dyDescent="0.15">
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="182" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,8 +628,11 @@
       <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -647,32 +663,35 @@
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
